--- a/updated/working-file.xlsx
+++ b/updated/working-file.xlsx
@@ -3022,14 +3022,15 @@
   <dimension ref="A1:M278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="31.7109375" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" customWidth="1"/>
-    <col min="7" max="7" width="37.5703125" customWidth="1"/>
+    <col min="7" max="7" width="63.42578125" customWidth="1"/>
+    <col min="9" max="12" width="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
